--- a/Testing/Sprint 1/Casos-de-prueba/Documentacion-Testing.xlsx
+++ b/Testing/Sprint 1/Casos-de-prueba/Documentacion-Testing.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainv\Desktop\Proyecto Integrador\templatePI\Testing\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p1p3p\OneDrive\Documentos\PI\grupo-09\Testing\Sprint 1\Casos-de-prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC7D2E0-3F1F-4B79-A8B3-DB8A52119F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Prueba" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="402">
   <si>
     <t>ID</t>
   </si>
@@ -1319,7 +1320,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
@@ -1788,7 +1789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1865,105 +1866,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1981,19 +1883,100 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2001,29 +1984,44 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2031,40 +2029,47 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2282,70 +2287,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z87"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:13" ht="13.2">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="41" t="s">
+      <c r="H1" s="80"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="77" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+    <row r="2" spans="1:13" ht="13.8">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2355,27 +2360,27 @@
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
     </row>
     <row r="3" spans="1:13" ht="56.25" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="50" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-    </row>
-    <row r="4" spans="1:13" ht="76.5">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+    </row>
+    <row r="4" spans="1:13" ht="66">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2414,7 +2419,7 @@
       </c>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="76.5">
+    <row r="5" spans="1:13" ht="66">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -2453,7 +2458,7 @@
       </c>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" ht="76.5">
+    <row r="6" spans="1:13" ht="66">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -2492,7 +2497,7 @@
       </c>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="51">
+    <row r="7" spans="1:13" ht="52.8">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -2531,7 +2536,7 @@
       </c>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="76.5">
+    <row r="8" spans="1:13" ht="79.2">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
@@ -2570,7 +2575,7 @@
       </c>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="76.5">
+    <row r="9" spans="1:13" ht="79.2">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
@@ -2609,7 +2614,7 @@
       </c>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="76.5">
+    <row r="10" spans="1:13" ht="79.2">
       <c r="A10" s="2" t="s">
         <v>49</v>
       </c>
@@ -2648,7 +2653,7 @@
       </c>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="76.5">
+    <row r="11" spans="1:13" ht="79.2">
       <c r="A11" s="22" t="s">
         <v>55</v>
       </c>
@@ -2679,7 +2684,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="89.25">
+    <row r="12" spans="1:13" ht="92.4">
       <c r="A12" s="22" t="s">
         <v>61</v>
       </c>
@@ -2718,7 +2723,7 @@
       </c>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="89.25">
+    <row r="13" spans="1:13" ht="92.4">
       <c r="A13" s="22" t="s">
         <v>65</v>
       </c>
@@ -2757,7 +2762,7 @@
       </c>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" ht="89.25">
+    <row r="14" spans="1:13" ht="92.4">
       <c r="A14" s="22" t="s">
         <v>69</v>
       </c>
@@ -2796,7 +2801,7 @@
       </c>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" ht="114.75">
+    <row r="15" spans="1:13" ht="118.8">
       <c r="A15" s="22" t="s">
         <v>76</v>
       </c>
@@ -2835,7 +2840,7 @@
       </c>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" ht="102">
+    <row r="16" spans="1:13" ht="105.6">
       <c r="A16" s="22" t="s">
         <v>81</v>
       </c>
@@ -2874,7 +2879,7 @@
       </c>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:26" ht="89.25">
+    <row r="17" spans="1:26" ht="92.4">
       <c r="A17" s="22" t="s">
         <v>87</v>
       </c>
@@ -2913,7 +2918,7 @@
       </c>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:26" ht="89.25">
+    <row r="18" spans="1:26" ht="92.4">
       <c r="A18" s="22" t="s">
         <v>89</v>
       </c>
@@ -2952,7 +2957,7 @@
       </c>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:26" ht="90" thickBot="1">
+    <row r="19" spans="1:26" ht="93" thickBot="1">
       <c r="A19" s="22" t="s">
         <v>91</v>
       </c>
@@ -2992,40 +2997,40 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:26" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="67">
         <v>44779</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="59">
         <v>1</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="J20" s="79" t="s">
+      <c r="J20" s="63" t="s">
         <v>395</v>
       </c>
-      <c r="K20" s="30" t="s">
+      <c r="K20" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="L20" s="30" t="s">
+      <c r="L20" s="59" t="s">
         <v>133</v>
       </c>
       <c r="M20" s="10"/>
@@ -3043,19 +3048,19 @@
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
     </row>
-    <row r="21" spans="1:26" ht="13.5" thickBot="1">
-      <c r="A21" s="46"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
+    <row r="21" spans="1:26" ht="13.8" thickBot="1">
+      <c r="A21" s="66"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -3071,13 +3076,13 @@
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
     </row>
-    <row r="22" spans="1:26" ht="39" thickBot="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
+    <row r="22" spans="1:26" ht="40.200000000000003" thickBot="1">
+      <c r="A22" s="60"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="7">
         <v>2</v>
       </c>
@@ -3087,7 +3092,7 @@
       <c r="I22" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="J22" s="82" t="s">
+      <c r="J22" s="38" t="s">
         <v>395</v>
       </c>
       <c r="K22" s="7" t="s">
@@ -3111,23 +3116,23 @@
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
     </row>
-    <row r="23" spans="1:26" ht="13.5" thickBot="1">
+    <row r="23" spans="1:26" ht="13.8" thickBot="1">
       <c r="A23" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B23" s="8">
         <v>44779</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="59" t="s">
         <v>138</v>
       </c>
       <c r="G23" s="7">
@@ -3136,16 +3141,16 @@
       <c r="H23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="J23" s="79" t="s">
+      <c r="J23" s="63" t="s">
         <v>395</v>
       </c>
-      <c r="K23" s="30" t="s">
+      <c r="K23" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="59" t="s">
         <v>133</v>
       </c>
       <c r="M23" s="10"/>
@@ -3163,23 +3168,23 @@
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
     </row>
-    <row r="24" spans="1:26" ht="39" thickBot="1">
+    <row r="24" spans="1:26" ht="40.200000000000003" thickBot="1">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
       <c r="G24" s="7">
         <v>2</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
@@ -3195,23 +3200,23 @@
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
     </row>
-    <row r="25" spans="1:26" ht="26.25" thickBot="1">
+    <row r="25" spans="1:26" ht="27" thickBot="1">
       <c r="A25" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B25" s="8">
         <v>44779</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="64" t="s">
         <v>144</v>
       </c>
       <c r="G25" s="9">
@@ -3220,10 +3225,10 @@
       <c r="H25" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="I25" s="35" t="s">
+      <c r="I25" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="J25" s="83" t="s">
+      <c r="J25" s="61" t="s">
         <v>395</v>
       </c>
       <c r="K25" s="7" t="s">
@@ -3247,21 +3252,21 @@
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
     </row>
-    <row r="26" spans="1:26" ht="26.25" thickBot="1">
+    <row r="26" spans="1:26" ht="27" thickBot="1">
       <c r="A26" s="10"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
       <c r="G26" s="9">
         <v>2</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I26" s="36"/>
-      <c r="J26" s="80"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="62"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
@@ -3279,23 +3284,23 @@
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
     </row>
-    <row r="27" spans="1:26" ht="26.25" thickBot="1">
-      <c r="A27" s="30" t="s">
+    <row r="27" spans="1:26" ht="27" thickBot="1">
+      <c r="A27" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="39">
+      <c r="B27" s="67">
         <v>44779</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="59" t="s">
         <v>95</v>
       </c>
       <c r="G27" s="7">
@@ -3304,13 +3309,13 @@
       <c r="H27" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="J27" s="83" t="s">
+      <c r="J27" s="61" t="s">
         <v>395</v>
       </c>
-      <c r="K27" s="30" t="s">
+      <c r="K27" s="59" t="s">
         <v>102</v>
       </c>
       <c r="L27" s="7" t="s">
@@ -3331,22 +3336,22 @@
       <c r="Y27" s="11"/>
       <c r="Z27" s="11"/>
     </row>
-    <row r="28" spans="1:26" ht="39" thickBot="1">
-      <c r="A28" s="31"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
+    <row r="28" spans="1:26" ht="40.200000000000003" thickBot="1">
+      <c r="A28" s="60"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
       <c r="G28" s="7">
         <v>2</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="31"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="60"/>
       <c r="L28" s="7" t="s">
         <v>149</v>
       </c>
@@ -3365,23 +3370,23 @@
       <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
     </row>
-    <row r="29" spans="1:26" ht="39" thickBot="1">
-      <c r="A29" s="35" t="s">
+    <row r="29" spans="1:26" ht="40.200000000000003" thickBot="1">
+      <c r="A29" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="82">
         <v>44779</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="64" t="s">
         <v>105</v>
       </c>
       <c r="G29" s="9" t="s">
@@ -3390,16 +3395,16 @@
       <c r="H29" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="I29" s="35" t="s">
+      <c r="I29" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="J29" s="83" t="s">
+      <c r="J29" s="61" t="s">
         <v>395</v>
       </c>
-      <c r="K29" s="30" t="s">
+      <c r="K29" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="30" t="s">
+      <c r="L29" s="59" t="s">
         <v>153</v>
       </c>
       <c r="M29" s="11"/>
@@ -3417,23 +3422,23 @@
       <c r="Y29" s="11"/>
       <c r="Z29" s="11"/>
     </row>
-    <row r="30" spans="1:26" ht="26.25" thickBot="1">
-      <c r="A30" s="36"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
+    <row r="30" spans="1:26" ht="27" thickBot="1">
+      <c r="A30" s="65"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
       <c r="G30" s="9" t="s">
         <v>154</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="I30" s="36"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
@@ -3449,23 +3454,23 @@
       <c r="Y30" s="11"/>
       <c r="Z30" s="11"/>
     </row>
-    <row r="31" spans="1:26" ht="13.5" thickBot="1">
-      <c r="A31" s="30" t="s">
+    <row r="31" spans="1:26" ht="13.8" thickBot="1">
+      <c r="A31" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="39">
+      <c r="B31" s="67">
         <v>44779</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="59" t="s">
         <v>157</v>
       </c>
       <c r="G31" s="7">
@@ -3474,16 +3479,16 @@
       <c r="H31" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="I31" s="30" t="s">
+      <c r="I31" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="J31" s="83" t="s">
+      <c r="J31" s="61" t="s">
         <v>395</v>
       </c>
-      <c r="K31" s="30" t="s">
+      <c r="K31" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="L31" s="30" t="s">
+      <c r="L31" s="59" t="s">
         <v>133</v>
       </c>
       <c r="M31" s="11"/>
@@ -3501,23 +3506,23 @@
       <c r="Y31" s="11"/>
       <c r="Z31" s="11"/>
     </row>
-    <row r="32" spans="1:26" ht="26.25" thickBot="1">
-      <c r="A32" s="31"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
+    <row r="32" spans="1:26" ht="27" thickBot="1">
+      <c r="A32" s="60"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="7">
         <v>2</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="I32" s="31"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
@@ -3533,23 +3538,23 @@
       <c r="Y32" s="11"/>
       <c r="Z32" s="11"/>
     </row>
-    <row r="33" spans="1:26" ht="13.5" thickBot="1">
-      <c r="A33" s="30" t="s">
+    <row r="33" spans="1:26" ht="13.8" thickBot="1">
+      <c r="A33" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="39">
+      <c r="B33" s="67">
         <v>44779</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="59" t="s">
         <v>111</v>
       </c>
       <c r="G33" s="7" t="s">
@@ -3558,16 +3563,16 @@
       <c r="H33" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="I33" s="30" t="s">
+      <c r="I33" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="J33" s="83" t="s">
+      <c r="J33" s="61" t="s">
         <v>395</v>
       </c>
-      <c r="K33" s="30" t="s">
+      <c r="K33" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="L33" s="30" t="s">
+      <c r="L33" s="59" t="s">
         <v>133</v>
       </c>
       <c r="M33" s="11"/>
@@ -3585,23 +3590,23 @@
       <c r="Y33" s="11"/>
       <c r="Z33" s="11"/>
     </row>
-    <row r="34" spans="1:26" ht="51.75" thickBot="1">
-      <c r="A34" s="31"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
+    <row r="34" spans="1:26" ht="53.4" thickBot="1">
+      <c r="A34" s="60"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
       <c r="G34" s="7" t="s">
         <v>154</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
@@ -3617,23 +3622,23 @@
       <c r="Y34" s="11"/>
       <c r="Z34" s="11"/>
     </row>
-    <row r="35" spans="1:26" ht="13.5" thickBot="1">
-      <c r="A35" s="35" t="s">
+    <row r="35" spans="1:26" ht="13.8" thickBot="1">
+      <c r="A35" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="82">
         <v>44779</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="35" t="s">
+      <c r="F35" s="64" t="s">
         <v>115</v>
       </c>
       <c r="G35" s="9">
@@ -3642,16 +3647,16 @@
       <c r="H35" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I35" s="35" t="s">
+      <c r="I35" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="J35" s="83" t="s">
+      <c r="J35" s="61" t="s">
         <v>395</v>
       </c>
-      <c r="K35" s="30" t="s">
+      <c r="K35" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="L35" s="30" t="s">
+      <c r="L35" s="59" t="s">
         <v>153</v>
       </c>
       <c r="M35" s="11"/>
@@ -3669,23 +3674,23 @@
       <c r="Y35" s="11"/>
       <c r="Z35" s="11"/>
     </row>
-    <row r="36" spans="1:26" ht="51.75" thickBot="1">
-      <c r="A36" s="36"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
+    <row r="36" spans="1:26" ht="40.200000000000003" thickBot="1">
+      <c r="A36" s="65"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
       <c r="G36" s="9">
         <v>2</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="I36" s="36"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
@@ -3701,23 +3706,23 @@
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
     </row>
-    <row r="37" spans="1:26" ht="39" thickBot="1">
-      <c r="A37" s="35" t="s">
+    <row r="37" spans="1:26" ht="27" thickBot="1">
+      <c r="A37" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="37">
+      <c r="B37" s="82">
         <v>44779</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="64" t="s">
         <v>168</v>
       </c>
       <c r="G37" s="9">
@@ -3726,16 +3731,16 @@
       <c r="H37" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="I37" s="35" t="s">
+      <c r="I37" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="J37" s="83" t="s">
+      <c r="J37" s="61" t="s">
         <v>395</v>
       </c>
-      <c r="K37" s="30" t="s">
+      <c r="K37" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="L37" s="30" t="s">
+      <c r="L37" s="59" t="s">
         <v>133</v>
       </c>
       <c r="M37" s="11"/>
@@ -3753,23 +3758,23 @@
       <c r="Y37" s="11"/>
       <c r="Z37" s="11"/>
     </row>
-    <row r="38" spans="1:26" ht="39" thickBot="1">
-      <c r="A38" s="36"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
+    <row r="38" spans="1:26" ht="40.200000000000003" thickBot="1">
+      <c r="A38" s="65"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
       <c r="G38" s="9">
         <v>2</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="I38" s="36"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
@@ -3785,23 +3790,23 @@
       <c r="Y38" s="11"/>
       <c r="Z38" s="11"/>
     </row>
-    <row r="39" spans="1:26" ht="12.75">
-      <c r="A39" s="47" t="s">
+    <row r="39" spans="1:26" ht="13.2">
+      <c r="A39" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="B39" s="50">
+      <c r="B39" s="76">
         <v>44779</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="E39" s="47" t="s">
+      <c r="E39" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="47" t="s">
+      <c r="F39" s="74" t="s">
         <v>161</v>
       </c>
       <c r="G39" s="13">
@@ -3810,90 +3815,90 @@
       <c r="H39" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="I39" s="51" t="s">
+      <c r="I39" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="J39" s="84" t="s">
+      <c r="J39" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="K39" s="30" t="s">
+      <c r="K39" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="L39" s="30" t="s">
+      <c r="L39" s="59" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="25.5">
-      <c r="A40" s="48"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
+    <row r="40" spans="1:26" ht="26.4">
+      <c r="A40" s="73"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
       <c r="G40" s="24">
         <v>2</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="I40" s="48"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
     </row>
     <row r="41" spans="1:26" ht="38.25" customHeight="1">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="B41" s="88">
+      <c r="B41" s="54">
         <v>44789</v>
       </c>
-      <c r="C41" s="86" t="s">
+      <c r="C41" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="D41" s="86" t="s">
+      <c r="D41" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="E41" s="86" t="s">
+      <c r="E41" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="86" t="s">
+      <c r="F41" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="G41" s="86">
+      <c r="G41" s="56">
         <v>1</v>
       </c>
-      <c r="H41" s="86" t="s">
+      <c r="H41" s="56" t="s">
         <v>236</v>
       </c>
-      <c r="I41" s="86" t="s">
+      <c r="I41" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="J41" s="86" t="s">
+      <c r="J41" s="56" t="s">
         <v>395</v>
       </c>
-      <c r="K41" s="34" t="s">
+      <c r="K41" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="L41" s="34" t="s">
+      <c r="L41" s="84" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="12.75">
-      <c r="A42" s="33"/>
-      <c r="B42" s="89"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-    </row>
-    <row r="43" spans="1:26" ht="38.25">
+    <row r="42" spans="1:26" ht="13.2">
+      <c r="A42" s="86"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="84"/>
+    </row>
+    <row r="43" spans="1:26" ht="39.6">
       <c r="A43" s="27" t="s">
         <v>229</v>
       </c>
@@ -3931,7 +3936,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="25.5">
+    <row r="44" spans="1:26" ht="26.4">
       <c r="A44" s="26" t="s">
         <v>241</v>
       </c>
@@ -3970,912 +3975,912 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="139.5" customHeight="1">
-      <c r="A45" s="90"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="90"/>
-      <c r="K45" s="90"/>
-      <c r="L45" s="90"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
     </row>
     <row r="46" spans="1:26" ht="49.5" customHeight="1">
-      <c r="A46" s="94" t="s">
+      <c r="A46" s="87" t="s">
         <v>398</v>
       </c>
-      <c r="B46" s="95"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="95"/>
-      <c r="K46" s="95"/>
-      <c r="L46" s="95"/>
-    </row>
-    <row r="47" spans="1:26" ht="89.25">
+      <c r="B46" s="88"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="88"/>
+      <c r="K46" s="88"/>
+      <c r="L46" s="88"/>
+    </row>
+    <row r="47" spans="1:26" ht="79.2">
       <c r="A47" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="B47" s="96">
+      <c r="B47" s="41">
         <v>44791</v>
       </c>
-      <c r="C47" s="97" t="s">
+      <c r="C47" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="D47" s="97" t="s">
+      <c r="D47" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="E47" s="97" t="s">
+      <c r="E47" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="98" t="s">
+      <c r="F47" s="43" t="s">
         <v>250</v>
       </c>
       <c r="G47" s="20"/>
-      <c r="H47" s="98" t="s">
+      <c r="H47" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="I47" s="97" t="s">
+      <c r="I47" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="J47" s="97" t="s">
+      <c r="J47" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="K47" s="97" t="s">
+      <c r="K47" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="L47" s="97" t="s">
+      <c r="L47" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="89.25">
+    <row r="48" spans="1:26" ht="79.2">
       <c r="A48" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="B48" s="96">
+      <c r="B48" s="41">
         <v>44791</v>
       </c>
-      <c r="C48" s="97" t="s">
+      <c r="C48" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="D48" s="97" t="s">
+      <c r="D48" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="E48" s="97" t="s">
+      <c r="E48" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="98" t="s">
+      <c r="F48" s="43" t="s">
         <v>250</v>
       </c>
       <c r="G48" s="20"/>
-      <c r="H48" s="97" t="s">
+      <c r="H48" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="I48" s="97" t="s">
+      <c r="I48" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="J48" s="97" t="s">
+      <c r="J48" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="K48" s="97" t="s">
+      <c r="K48" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="L48" s="97" t="s">
+      <c r="L48" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="114.75">
+    <row r="49" spans="1:12" ht="105.6">
       <c r="A49" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="B49" s="96">
+      <c r="B49" s="41">
         <v>44791</v>
       </c>
-      <c r="C49" s="97" t="s">
+      <c r="C49" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="D49" s="97" t="s">
+      <c r="D49" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="E49" s="97" t="s">
+      <c r="E49" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="98" t="s">
+      <c r="F49" s="43" t="s">
         <v>255</v>
       </c>
       <c r="G49" s="20"/>
-      <c r="H49" s="97" t="s">
+      <c r="H49" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="I49" s="97" t="s">
+      <c r="I49" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="J49" s="97" t="s">
+      <c r="J49" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="K49" s="97" t="s">
+      <c r="K49" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="L49" s="97" t="s">
+      <c r="L49" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="38.25">
+    <row r="50" spans="1:12" ht="39.6">
       <c r="A50" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="B50" s="96">
+      <c r="B50" s="41">
         <v>44791</v>
       </c>
-      <c r="C50" s="97" t="s">
+      <c r="C50" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="D50" s="97" t="s">
+      <c r="D50" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="E50" s="97" t="s">
+      <c r="E50" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="F50" s="98" t="s">
+      <c r="F50" s="43" t="s">
         <v>255</v>
       </c>
       <c r="G50" s="20"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="97"/>
-      <c r="J50" s="97" t="s">
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="K50" s="97" t="s">
+      <c r="K50" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="L50" s="97" t="s">
+      <c r="L50" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="114.75">
+    <row r="51" spans="1:12" ht="105.6">
       <c r="A51" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="B51" s="96">
+      <c r="B51" s="41">
         <v>44791</v>
       </c>
-      <c r="C51" s="97" t="s">
+      <c r="C51" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="D51" s="97" t="s">
+      <c r="D51" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="E51" s="97" t="s">
+      <c r="E51" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="98" t="s">
+      <c r="F51" s="43" t="s">
         <v>255</v>
       </c>
       <c r="G51" s="20"/>
-      <c r="H51" s="97" t="s">
+      <c r="H51" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="I51" s="97" t="s">
+      <c r="I51" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="J51" s="97" t="s">
+      <c r="J51" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="K51" s="97" t="s">
+      <c r="K51" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="L51" s="97" t="s">
+      <c r="L51" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="140.25">
+    <row r="52" spans="1:12" ht="132">
       <c r="A52" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="B52" s="96">
+      <c r="B52" s="41">
         <v>44791</v>
       </c>
-      <c r="C52" s="97" t="s">
+      <c r="C52" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="D52" s="97" t="s">
+      <c r="D52" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="E52" s="97" t="s">
+      <c r="E52" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="98" t="s">
+      <c r="F52" s="43" t="s">
         <v>255</v>
       </c>
       <c r="G52" s="20"/>
-      <c r="H52" s="97" t="s">
+      <c r="H52" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="I52" s="99" t="s">
+      <c r="I52" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="J52" s="97" t="s">
+      <c r="J52" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="K52" s="97" t="s">
+      <c r="K52" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="L52" s="97" t="s">
+      <c r="L52" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="127.5">
+    <row r="53" spans="1:12" ht="132">
       <c r="A53" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="B53" s="96">
+      <c r="B53" s="41">
         <v>44791</v>
       </c>
-      <c r="C53" s="97" t="s">
+      <c r="C53" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="D53" s="97" t="s">
+      <c r="D53" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="E53" s="97" t="s">
+      <c r="E53" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="98" t="s">
+      <c r="F53" s="43" t="s">
         <v>264</v>
       </c>
       <c r="G53" s="20"/>
-      <c r="H53" s="97" t="s">
+      <c r="H53" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="I53" s="99" t="s">
+      <c r="I53" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="J53" s="97" t="s">
+      <c r="J53" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="K53" s="97" t="s">
+      <c r="K53" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="L53" s="97" t="s">
+      <c r="L53" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="114.75">
+    <row r="54" spans="1:12" ht="118.8">
       <c r="A54" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="B54" s="96">
+      <c r="B54" s="41">
         <v>44791</v>
       </c>
-      <c r="C54" s="97" t="s">
+      <c r="C54" s="42" t="s">
         <v>265</v>
       </c>
-      <c r="D54" s="97" t="s">
+      <c r="D54" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="E54" s="97" t="s">
+      <c r="E54" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="98" t="s">
+      <c r="F54" s="43" t="s">
         <v>264</v>
       </c>
       <c r="G54" s="20"/>
-      <c r="H54" s="97" t="s">
+      <c r="H54" s="42" t="s">
         <v>293</v>
       </c>
-      <c r="I54" s="99" t="s">
+      <c r="I54" s="44" t="s">
         <v>294</v>
       </c>
-      <c r="J54" s="97" t="s">
+      <c r="J54" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="K54" s="97" t="s">
+      <c r="K54" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="L54" s="97" t="s">
+      <c r="L54" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="165.75">
+    <row r="55" spans="1:12" ht="158.4">
       <c r="A55" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="B55" s="96">
+      <c r="B55" s="41">
         <v>44791</v>
       </c>
-      <c r="C55" s="97" t="s">
+      <c r="C55" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="D55" s="97" t="s">
+      <c r="D55" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="E55" s="97" t="s">
+      <c r="E55" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="98" t="s">
+      <c r="F55" s="43" t="s">
         <v>264</v>
       </c>
       <c r="G55" s="20"/>
-      <c r="H55" s="97" t="s">
+      <c r="H55" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="I55" s="99" t="s">
+      <c r="I55" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="J55" s="97" t="s">
+      <c r="J55" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="K55" s="97" t="s">
+      <c r="K55" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="L55" s="97" t="s">
+      <c r="L55" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="127.5">
+    <row r="56" spans="1:12" ht="132">
       <c r="A56" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="B56" s="96">
+      <c r="B56" s="41">
         <v>44791</v>
       </c>
-      <c r="C56" s="97" t="s">
+      <c r="C56" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="D56" s="97" t="s">
+      <c r="D56" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="E56" s="97" t="s">
+      <c r="E56" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F56" s="98" t="s">
+      <c r="F56" s="43" t="s">
         <v>264</v>
       </c>
       <c r="G56" s="20"/>
-      <c r="H56" s="97" t="s">
+      <c r="H56" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="I56" s="99" t="s">
+      <c r="I56" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="J56" s="97" t="s">
+      <c r="J56" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="K56" s="97" t="s">
+      <c r="K56" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="L56" s="97" t="s">
+      <c r="L56" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="127.5">
+    <row r="57" spans="1:12" ht="132">
       <c r="A57" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="B57" s="96">
+      <c r="B57" s="41">
         <v>44792</v>
       </c>
-      <c r="C57" s="97" t="s">
+      <c r="C57" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="D57" s="97" t="s">
+      <c r="D57" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="E57" s="97" t="s">
+      <c r="E57" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="98" t="s">
+      <c r="F57" s="43" t="s">
         <v>264</v>
       </c>
       <c r="G57" s="20"/>
-      <c r="H57" s="97" t="s">
+      <c r="H57" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="I57" s="99" t="s">
+      <c r="I57" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="J57" s="97" t="s">
+      <c r="J57" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="K57" s="97" t="s">
+      <c r="K57" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="L57" s="97" t="s">
+      <c r="L57" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="127.5">
+    <row r="58" spans="1:12" ht="132">
       <c r="A58" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="B58" s="96">
+      <c r="B58" s="41">
         <v>44793</v>
       </c>
-      <c r="C58" s="97" t="s">
+      <c r="C58" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="D58" s="97" t="s">
+      <c r="D58" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="E58" s="97" t="s">
+      <c r="E58" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="98" t="s">
+      <c r="F58" s="43" t="s">
         <v>264</v>
       </c>
       <c r="G58" s="20"/>
-      <c r="H58" s="97" t="s">
+      <c r="H58" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="I58" s="99" t="s">
+      <c r="I58" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="J58" s="97" t="s">
+      <c r="J58" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="K58" s="97" t="s">
+      <c r="K58" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="L58" s="97" t="s">
+      <c r="L58" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="127.5">
+    <row r="59" spans="1:12" ht="132">
       <c r="A59" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="B59" s="96">
+      <c r="B59" s="41">
         <v>44794</v>
       </c>
-      <c r="C59" s="97" t="s">
+      <c r="C59" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="D59" s="97" t="s">
+      <c r="D59" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="E59" s="97" t="s">
+      <c r="E59" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="98" t="s">
+      <c r="F59" s="43" t="s">
         <v>264</v>
       </c>
       <c r="G59" s="20"/>
-      <c r="H59" s="97" t="s">
+      <c r="H59" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="I59" s="99" t="s">
+      <c r="I59" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="J59" s="97" t="s">
+      <c r="J59" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="K59" s="97" t="s">
+      <c r="K59" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="L59" s="97" t="s">
+      <c r="L59" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="127.5">
+    <row r="60" spans="1:12" ht="132">
       <c r="A60" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="B60" s="96">
+      <c r="B60" s="41">
         <v>44795</v>
       </c>
-      <c r="C60" s="97" t="s">
+      <c r="C60" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="D60" s="97" t="s">
+      <c r="D60" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="E60" s="97" t="s">
+      <c r="E60" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F60" s="98" t="s">
+      <c r="F60" s="43" t="s">
         <v>264</v>
       </c>
       <c r="G60" s="20"/>
-      <c r="H60" s="97" t="s">
+      <c r="H60" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="I60" s="99" t="s">
+      <c r="I60" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="J60" s="97" t="s">
+      <c r="J60" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="K60" s="97" t="s">
+      <c r="K60" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="L60" s="97" t="s">
+      <c r="L60" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="127.5">
+    <row r="61" spans="1:12" ht="132">
       <c r="A61" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="B61" s="96">
+      <c r="B61" s="41">
         <v>44796</v>
       </c>
-      <c r="C61" s="97" t="s">
+      <c r="C61" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="D61" s="97" t="s">
+      <c r="D61" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="E61" s="97" t="s">
+      <c r="E61" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="98" t="s">
+      <c r="F61" s="43" t="s">
         <v>264</v>
       </c>
       <c r="G61" s="20"/>
-      <c r="H61" s="97" t="s">
+      <c r="H61" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="I61" s="99" t="s">
+      <c r="I61" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="J61" s="97" t="s">
+      <c r="J61" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="K61" s="97" t="s">
+      <c r="K61" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="L61" s="97" t="s">
+      <c r="L61" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="127.5">
+    <row r="62" spans="1:12" ht="132">
       <c r="A62" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="B62" s="96">
+      <c r="B62" s="41">
         <v>44797</v>
       </c>
-      <c r="C62" s="97" t="s">
+      <c r="C62" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="D62" s="97" t="s">
+      <c r="D62" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="E62" s="97" t="s">
+      <c r="E62" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F62" s="98" t="s">
+      <c r="F62" s="43" t="s">
         <v>264</v>
       </c>
       <c r="G62" s="20"/>
-      <c r="H62" s="97" t="s">
+      <c r="H62" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="I62" s="99" t="s">
+      <c r="I62" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="J62" s="97" t="s">
+      <c r="J62" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="K62" s="97" t="s">
+      <c r="K62" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="L62" s="97" t="s">
+      <c r="L62" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="127.5">
+    <row r="63" spans="1:12" ht="132">
       <c r="A63" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="B63" s="96">
+      <c r="B63" s="41">
         <v>44798</v>
       </c>
-      <c r="C63" s="97" t="s">
+      <c r="C63" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="D63" s="97" t="s">
+      <c r="D63" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="E63" s="97" t="s">
+      <c r="E63" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="98" t="s">
+      <c r="F63" s="43" t="s">
         <v>264</v>
       </c>
       <c r="G63" s="20"/>
-      <c r="H63" s="97" t="s">
+      <c r="H63" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="I63" s="99" t="s">
+      <c r="I63" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="J63" s="97" t="s">
+      <c r="J63" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="K63" s="97" t="s">
+      <c r="K63" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="L63" s="97" t="s">
+      <c r="L63" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="165.75">
+    <row r="64" spans="1:12" ht="158.4">
       <c r="A64" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="B64" s="96">
+      <c r="B64" s="41">
         <v>44791</v>
       </c>
-      <c r="C64" s="97" t="s">
+      <c r="C64" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="D64" s="97" t="s">
+      <c r="D64" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="E64" s="97" t="s">
+      <c r="E64" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F64" s="98" t="s">
+      <c r="F64" s="43" t="s">
         <v>271</v>
       </c>
       <c r="G64" s="20"/>
-      <c r="H64" s="97" t="s">
+      <c r="H64" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="I64" s="99" t="s">
+      <c r="I64" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="J64" s="97" t="s">
+      <c r="J64" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="K64" s="97" t="s">
+      <c r="K64" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="L64" s="97" t="s">
+      <c r="L64" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="165.75">
+    <row r="65" spans="1:12" ht="158.4">
       <c r="A65" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="B65" s="96">
+      <c r="B65" s="41">
         <v>44791</v>
       </c>
-      <c r="C65" s="100" t="s">
+      <c r="C65" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="D65" s="97" t="s">
+      <c r="D65" s="42" t="s">
         <v>275</v>
       </c>
-      <c r="E65" s="97" t="s">
+      <c r="E65" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="98" t="s">
+      <c r="F65" s="43" t="s">
         <v>271</v>
       </c>
       <c r="G65" s="20"/>
-      <c r="H65" s="97" t="s">
+      <c r="H65" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="I65" s="99" t="s">
+      <c r="I65" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="J65" s="97" t="s">
+      <c r="J65" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="K65" s="97" t="s">
+      <c r="K65" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="L65" s="97" t="s">
+      <c r="L65" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="165.75">
+    <row r="66" spans="1:12" ht="158.4">
       <c r="A66" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="B66" s="96">
+      <c r="B66" s="41">
         <v>44791</v>
       </c>
-      <c r="C66" s="100" t="s">
+      <c r="C66" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="D66" s="97" t="s">
+      <c r="D66" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="E66" s="97" t="s">
+      <c r="E66" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="98" t="s">
+      <c r="F66" s="43" t="s">
         <v>271</v>
       </c>
       <c r="G66" s="20"/>
-      <c r="H66" s="97" t="s">
+      <c r="H66" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="I66" s="99" t="s">
+      <c r="I66" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="J66" s="97" t="s">
+      <c r="J66" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="K66" s="97" t="s">
+      <c r="K66" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="L66" s="97" t="s">
+      <c r="L66" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="165.75">
+    <row r="67" spans="1:12" ht="158.4">
       <c r="A67" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="B67" s="96">
+      <c r="B67" s="41">
         <v>44791</v>
       </c>
-      <c r="C67" s="100" t="s">
+      <c r="C67" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="D67" s="97" t="s">
+      <c r="D67" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="E67" s="97" t="s">
+      <c r="E67" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="98" t="s">
+      <c r="F67" s="43" t="s">
         <v>271</v>
       </c>
       <c r="G67" s="20"/>
-      <c r="H67" s="97" t="s">
+      <c r="H67" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="I67" s="99" t="s">
+      <c r="I67" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="J67" s="97" t="s">
+      <c r="J67" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="K67" s="97" t="s">
+      <c r="K67" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="L67" s="97" t="s">
+      <c r="L67" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="165.75">
+    <row r="68" spans="1:12" ht="158.4">
       <c r="A68" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="B68" s="96">
+      <c r="B68" s="41">
         <v>44791</v>
       </c>
-      <c r="C68" s="100" t="s">
+      <c r="C68" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="D68" s="97" t="s">
+      <c r="D68" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="E68" s="97" t="s">
+      <c r="E68" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="98" t="s">
+      <c r="F68" s="43" t="s">
         <v>271</v>
       </c>
       <c r="G68" s="20"/>
-      <c r="H68" s="97" t="s">
+      <c r="H68" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="I68" s="99" t="s">
+      <c r="I68" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="J68" s="97" t="s">
+      <c r="J68" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="K68" s="97" t="s">
+      <c r="K68" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="L68" s="97" t="s">
+      <c r="L68" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="165.75">
+    <row r="69" spans="1:12" ht="158.4">
       <c r="A69" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B69" s="96">
+      <c r="B69" s="41">
         <v>44791</v>
       </c>
-      <c r="C69" s="100" t="s">
+      <c r="C69" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="D69" s="97" t="s">
+      <c r="D69" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="E69" s="97" t="s">
+      <c r="E69" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F69" s="98" t="s">
+      <c r="F69" s="43" t="s">
         <v>271</v>
       </c>
       <c r="G69" s="20"/>
-      <c r="H69" s="97" t="s">
+      <c r="H69" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="I69" s="99" t="s">
+      <c r="I69" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="J69" s="97" t="s">
+      <c r="J69" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="K69" s="97" t="s">
+      <c r="K69" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="L69" s="97" t="s">
+      <c r="L69" s="42" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="38.25" customHeight="1">
-      <c r="A70" s="101" t="s">
+      <c r="A70" s="52" t="s">
         <v>324</v>
       </c>
-      <c r="B70" s="88">
+      <c r="B70" s="54">
         <v>44795</v>
       </c>
-      <c r="C70" s="86" t="s">
+      <c r="C70" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="D70" s="86" t="s">
+      <c r="D70" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="E70" s="86" t="s">
+      <c r="E70" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="F70" s="86" t="s">
+      <c r="F70" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="G70" s="86">
+      <c r="G70" s="56">
         <v>1</v>
       </c>
-      <c r="H70" s="86" t="s">
+      <c r="H70" s="56" t="s">
         <v>236</v>
       </c>
-      <c r="I70" s="86" t="s">
+      <c r="I70" s="56" t="s">
         <v>337</v>
       </c>
-      <c r="J70" s="103" t="s">
+      <c r="J70" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="K70" s="34" t="s">
+      <c r="K70" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="L70" s="34" t="s">
+      <c r="L70" s="84" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="12.75">
-      <c r="A71" s="102"/>
-      <c r="B71" s="89"/>
-      <c r="C71" s="87"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="87"/>
-      <c r="I71" s="87"/>
-      <c r="J71" s="87"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="34"/>
-    </row>
-    <row r="72" spans="1:12" ht="38.25">
+    <row r="71" spans="1:12" ht="13.2">
+      <c r="A71" s="53"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="57"/>
+      <c r="K71" s="84"/>
+      <c r="L71" s="84"/>
+    </row>
+    <row r="72" spans="1:12" ht="39.6">
       <c r="A72" s="20" t="s">
         <v>325</v>
       </c>
@@ -4913,7 +4918,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="38.25">
+    <row r="73" spans="1:12" ht="39.6">
       <c r="A73" s="20" t="s">
         <v>326</v>
       </c>
@@ -4951,7 +4956,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="38.25">
+    <row r="74" spans="1:12" ht="39.6">
       <c r="A74" s="20" t="s">
         <v>327</v>
       </c>
@@ -4989,7 +4994,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="25.5">
+    <row r="75" spans="1:12" ht="26.4">
       <c r="A75" s="20" t="s">
         <v>328</v>
       </c>
@@ -5027,7 +5032,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="38.25">
+    <row r="76" spans="1:12" ht="39.6">
       <c r="A76" s="20" t="s">
         <v>329</v>
       </c>
@@ -5065,7 +5070,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="38.25">
+    <row r="77" spans="1:12" ht="39.6">
       <c r="A77" s="20" t="s">
         <v>330</v>
       </c>
@@ -5103,7 +5108,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="25.5">
+    <row r="78" spans="1:12" ht="26.4">
       <c r="A78" s="20" t="s">
         <v>331</v>
       </c>
@@ -5141,7 +5146,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="38.25">
+    <row r="79" spans="1:12" ht="39.6">
       <c r="A79" s="20" t="s">
         <v>332</v>
       </c>
@@ -5179,7 +5184,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="38.25">
+    <row r="80" spans="1:12" ht="39.6">
       <c r="A80" s="20" t="s">
         <v>333</v>
       </c>
@@ -5217,7 +5222,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="25.5">
+    <row r="81" spans="1:12" ht="26.4">
       <c r="A81" s="20" t="s">
         <v>334</v>
       </c>
@@ -5255,7 +5260,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="38.25">
+    <row r="82" spans="1:12" ht="39.6">
       <c r="A82" s="20" t="s">
         <v>335</v>
       </c>
@@ -5293,7 +5298,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="38.25">
+    <row r="83" spans="1:12" ht="39.6">
       <c r="A83" s="20" t="s">
         <v>390</v>
       </c>
@@ -5331,7 +5336,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="25.5">
+    <row r="84" spans="1:12" ht="26.4">
       <c r="A84" s="20" t="s">
         <v>391</v>
       </c>
@@ -5369,7 +5374,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="38.25">
+    <row r="85" spans="1:12" ht="39.6">
       <c r="A85" s="20" t="s">
         <v>392</v>
       </c>
@@ -5407,7 +5412,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="38.25">
+    <row r="86" spans="1:12" ht="39.6">
       <c r="A86" s="20" t="s">
         <v>393</v>
       </c>
@@ -5445,7 +5450,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="25.5">
+    <row r="87" spans="1:12" ht="26.4">
       <c r="A87" s="20" t="s">
         <v>394</v>
       </c>
@@ -5485,6 +5490,113 @@
     </row>
   </sheetData>
   <mergeCells count="131">
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="B70:B71"/>
@@ -5509,117 +5621,10 @@
     <mergeCell ref="L20:L21"/>
     <mergeCell ref="J23:J24"/>
     <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A46:L46"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H36" r:id="rId1" display="http://email.com/"/>
+    <hyperlink ref="H36" r:id="rId1" display="http://email.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5627,544 +5632,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="31" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="73"/>
-      <c r="B5" s="74" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73" t="s">
+      <c r="E5" s="32"/>
+      <c r="F5" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="75" t="s">
+      <c r="E6" s="32"/>
+      <c r="F6" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="73"/>
-      <c r="B7" s="74" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="75" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="73"/>
-      <c r="B8" s="74" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="75" t="s">
+      <c r="E8" s="32"/>
+      <c r="F8" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="73"/>
-      <c r="B9" s="74" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="75" t="s">
+      <c r="E9" s="32"/>
+      <c r="F9" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="73"/>
-      <c r="B10" s="74" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="75" t="s">
+      <c r="E10" s="32"/>
+      <c r="F10" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="73"/>
-      <c r="B11" s="74" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73" t="s">
+      <c r="E11" s="32"/>
+      <c r="F11" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="73"/>
-      <c r="B12" s="74" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73" t="s">
+      <c r="E12" s="32"/>
+      <c r="F12" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="73"/>
-      <c r="B13" s="74" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="73"/>
-      <c r="B14" s="74" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="73"/>
-      <c r="B15" s="74" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73" t="s">
+      <c r="C15" s="32"/>
+      <c r="D15" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="73"/>
-      <c r="B16" s="74" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73" t="s">
+      <c r="C16" s="32"/>
+      <c r="D16" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-    </row>
-    <row r="17" spans="1:8" ht="12.75">
-      <c r="A17" s="76"/>
-      <c r="B17" s="74" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-    </row>
-    <row r="18" spans="1:8" ht="76.5">
-      <c r="A18" s="76">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+    </row>
+    <row r="18" spans="1:8" ht="66">
+      <c r="A18" s="35">
         <v>44779</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="E18" s="77" t="s">
+      <c r="E18" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="F18" s="77" t="s">
+      <c r="F18" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="73"/>
-      <c r="B19" s="74" t="s">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73" t="s">
+      <c r="E19" s="32"/>
+      <c r="F19" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="73"/>
-      <c r="B20" s="74" t="s">
+      <c r="A20" s="32"/>
+      <c r="B20" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73" t="s">
+      <c r="E20" s="32"/>
+      <c r="F20" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="73"/>
-      <c r="B21" s="74" t="s">
+      <c r="A21" s="32"/>
+      <c r="B21" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73" t="s">
+      <c r="C21" s="32"/>
+      <c r="D21" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73" t="s">
+      <c r="E21" s="32"/>
+      <c r="F21" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="73"/>
-      <c r="B22" s="74" t="s">
+      <c r="A22" s="32"/>
+      <c r="B22" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73" t="s">
+      <c r="C22" s="32"/>
+      <c r="D22" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73" t="s">
+      <c r="E22" s="32"/>
+      <c r="F22" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="73"/>
-      <c r="B23" s="74" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73" t="s">
+      <c r="C23" s="32"/>
+      <c r="D23" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73" t="s">
+      <c r="E23" s="32"/>
+      <c r="F23" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74" t="s">
+      <c r="A24" s="32"/>
+      <c r="B24" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="73"/>
-      <c r="B25" s="74" t="s">
+      <c r="A25" s="32"/>
+      <c r="B25" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73" t="s">
+      <c r="E25" s="32"/>
+      <c r="F25" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="73"/>
-      <c r="B26" s="74" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="73"/>
-      <c r="B27" s="78" t="s">
+      <c r="A27" s="32"/>
+      <c r="B27" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-    </row>
-    <row r="28" spans="1:8" ht="63.75">
-      <c r="A28" s="76">
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="1:8" ht="66">
+      <c r="A28" s="35">
         <v>44779</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="D28" s="77" t="s">
+      <c r="D28" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="E28" s="77" t="s">
+      <c r="E28" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="F28" s="77" t="s">
+      <c r="F28" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-    </row>
-    <row r="29" spans="1:8" ht="51">
-      <c r="A29" s="76">
+      <c r="G28" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="66">
+      <c r="A29" s="35">
         <v>44779</v>
       </c>
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="D29" s="77" t="s">
+      <c r="D29" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="E29" s="77" t="s">
+      <c r="E29" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="F29" s="77" t="s">
+      <c r="F29" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-    </row>
-    <row r="30" spans="1:8" ht="76.5">
-      <c r="A30" s="76">
+      <c r="G29" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="66">
+      <c r="A30" s="35">
         <v>44779</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="C30" s="77" t="s">
+      <c r="C30" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="D30" s="77" t="s">
+      <c r="D30" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="E30" s="77" t="s">
+      <c r="E30" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="F30" s="77" t="s">
+      <c r="F30" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
+      <c r="G30" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>343</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -6173,41 +6190,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C33" sqref="C32:C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="47" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6371,107 +6392,238 @@
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
     </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A28" s="108"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A29" s="108"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A30" s="108"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="107" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="107" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="52" t="s">
+      <c r="H1" s="104"/>
+      <c r="I1" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="102" t="s">
         <v>186</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="102" t="s">
         <v>187</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="O1" s="102" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="64"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="56">
+      <c r="B3" s="100">
         <v>44784</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="95" t="s">
         <v>200</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="89" t="s">
         <v>201</v>
       </c>
       <c r="G3" s="17">
@@ -6480,577 +6632,651 @@
       <c r="H3" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="60" t="s">
+      <c r="I3" s="98"/>
+      <c r="J3" s="92" t="s">
         <v>191</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="92" t="s">
         <v>202</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="N3" s="58" t="s">
+      <c r="N3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="60" t="s">
+      <c r="O3" s="92" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
       <c r="G4" s="17">
         <v>2</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
       <c r="G5" s="17">
         <v>3</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
       <c r="G6" s="17">
         <v>4</v>
       </c>
       <c r="H6" s="17"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="90"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
       <c r="G7" s="17">
         <v>5</v>
       </c>
       <c r="H7" s="17"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="54"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
+      <c r="A8" s="93"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="55"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="54"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="69"/>
+      <c r="A12" s="93"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="99"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="54"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="66"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="97"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="54"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="54"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
       <c r="G24" s="18"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="91"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="54"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="91"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="54"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="89"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
       <c r="G32" s="18"/>
       <c r="H32" s="19"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="90"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="90"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
+      <c r="A34" s="91"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="O27:O30"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="L31:L34"/>
-    <mergeCell ref="M31:M34"/>
-    <mergeCell ref="K27:K30"/>
-    <mergeCell ref="L27:L30"/>
-    <mergeCell ref="M27:M30"/>
-    <mergeCell ref="N27:N30"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="M3:M7"/>
+    <mergeCell ref="N3:N7"/>
+    <mergeCell ref="O3:O7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="O8:O11"/>
+    <mergeCell ref="K8:K11"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="M8:M11"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="O15:O17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J21"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="C31:C34"/>
@@ -7075,93 +7301,19 @@
     <mergeCell ref="N31:N34"/>
     <mergeCell ref="O31:O34"/>
     <mergeCell ref="F31:F34"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="N18:N21"/>
-    <mergeCell ref="O18:O21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="N15:N17"/>
-    <mergeCell ref="O15:O17"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="J8:J11"/>
-    <mergeCell ref="M3:M7"/>
-    <mergeCell ref="N3:N7"/>
-    <mergeCell ref="O3:O7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="O8:O11"/>
-    <mergeCell ref="K8:K11"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="M8:M11"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="O27:O30"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="L31:L34"/>
+    <mergeCell ref="M31:M34"/>
+    <mergeCell ref="K27:K30"/>
+    <mergeCell ref="L27:L30"/>
+    <mergeCell ref="M27:M30"/>
+    <mergeCell ref="N27:N30"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="J3 J8 J12 J15 J18 J22 J27 J31">
+    <dataValidation type="list" allowBlank="1" sqref="J3 J8 J12 J15 J18 J22 J27 J31" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Reportado,En revisión,Finalizado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7171,60 +7323,60 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="48" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="24">
-      <c r="A2" s="107" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="F2" s="107" t="s">
+      <c r="F2" s="49" t="s">
         <v>218</v>
       </c>
       <c r="G2" s="21" t="s">
@@ -7232,22 +7384,22 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="F3" s="107" t="s">
+      <c r="F3" s="49" t="s">
         <v>219</v>
       </c>
       <c r="G3" s="21" t="s">
@@ -7255,68 +7407,68 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="E4" s="107" t="s">
+      <c r="E4" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="F4" s="107" t="s">
+      <c r="F4" s="49" t="s">
         <v>220</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="24">
-      <c r="A5" s="107" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="49" t="s">
         <v>222</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="36">
-      <c r="A6" s="107" t="s">
+    <row r="6" spans="1:7" ht="23.4">
+      <c r="A6" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="E6" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="F6" s="107" t="s">
+      <c r="F6" s="49" t="s">
         <v>221</v>
       </c>
       <c r="G6" s="21" t="s">
@@ -7324,22 +7476,22 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="49" t="s">
         <v>400</v>
       </c>
-      <c r="F7" s="107" t="s">
+      <c r="F7" s="49" t="s">
         <v>223</v>
       </c>
       <c r="G7" s="21" t="s">
